--- a/MetaWorldNPT/JavaScripts/depend/dialogify/example/excel/DialogueInteractNode_对话交互节点表.xlsx
+++ b/MetaWorldNPT/JavaScripts/depend/dialogify/example/excel/DialogueInteractNode_对话交互节点表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,7 +55,7 @@
     <t>内容</t>
   </si>
   <si>
-    <t xml:space="preserve">NEVEN_CHANGE 不要更改此列</t>
+    <t xml:space="preserve">VIEW_ONLY 不要更改或使用此列</t>
   </si>
   <si>
     <t xml:space="preserve">对话节点功能 ID</t>
@@ -157,7 +157,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
+        <row r="4">
           <cell r="D1"/>
           <cell r="B1"/>
         </row>
